--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>001224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>中邮新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>19.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.32</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.28</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>59.88</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>000601</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>华宝创新优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.76</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.40</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7755</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000601</t>
+          <t>001224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝创新优选混合</t>
+          <t>中邮新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010114</t>
+          <t>000124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝新兴成长混合</t>
+          <t>华宝服务优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>010114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>华宝新兴成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>001056</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>77.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.54</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168501</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北信瑞丰产业升级多策略混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8730</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8671</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2208,4 +2209,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7988</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2797,4 +2798,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.97</v>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.55</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.6</v>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +2972,415 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3279,7 +3280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3290,17 +3291,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3310,14 +3331,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3326,14 +3369,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.97</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3342,14 +3407,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.55</v>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3358,14 +3445,134 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>4.6</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="6">
@@ -3374,13 +3581,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002651-利君股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3486,7 +3487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3497,17 +3498,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3517,14 +3538,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3533,14 +3576,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -3549,14 +3682,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.97</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -3565,14 +3698,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>7.55</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="6">
@@ -3581,14 +3714,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="7">
@@ -3597,13 +3730,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.41</v>
       </c>
     </row>
